--- a/source/downloads/error-messages/Full Return Errors.xlsx
+++ b/source/downloads/error-messages/Full Return Errors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
   <si>
     <t>Error Code</t>
   </si>
@@ -106,117 +106,135 @@
     <t>COMPANY_REASON_LENGTH</t>
   </si>
   <si>
+    <t>Estimate reason must be between 1 and 5,000 characters</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE_INVALID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country code must be a valid ISO 3166-1 alpha-2 country code </t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE_LENGTH</t>
+  </si>
+  <si>
+    <t>Country code must be 2 letters</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE_SHOULD_NOT_BE_ENTERED</t>
+  </si>
+  <si>
+    <t>Country code should not be entered if GB, use a UTR instead</t>
+  </si>
+  <si>
+    <t>DATE_INVALID</t>
+  </si>
+  <si>
+    <t>Dates must be in the range 1900-01-01 to 2099-12-31</t>
+  </si>
+  <si>
+    <t>DEEMED_EMPTY</t>
+  </si>
+  <si>
+    <t>Add at least 1 deemed parent</t>
+  </si>
+  <si>
+    <t>DEEMED_MAX</t>
+  </si>
+  <si>
+    <t>Maximum number of deemed parents is 3</t>
+  </si>
+  <si>
+    <t>DEEMED_MIN</t>
+  </si>
+  <si>
+    <t>Minimum number of deemed parents is 2</t>
+  </si>
+  <si>
+    <t>DEEMED_PARENT_COUNTRY</t>
+  </si>
+  <si>
+    <t>Enter a country of incorporation where the deemed parent is non-UK</t>
+  </si>
+  <si>
+    <t>DEEMED_PARENT_DETAILS</t>
+  </si>
+  <si>
+    <t>Deemed parent must have either a CTUTR, a SAUTR or a country code</t>
+  </si>
+  <si>
+    <t>DEEMED_PARENT_UTR</t>
+  </si>
+  <si>
+    <t>Enter a UTR where the deemed parent is UK</t>
+  </si>
+  <si>
+    <t>EBITDA_DECIMAL</t>
+  </si>
+  <si>
+    <t>Group EBITDA must be to 2 decimal places or less</t>
+  </si>
+  <si>
+    <t>EBITDA_NEGATIVE</t>
+  </si>
+  <si>
+    <t>If group EBITDA is negative or zero, set group ratio to 100</t>
+  </si>
+  <si>
+    <t>END_DATE_18_MONTHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period of account cannot be longer than 18 months </t>
+  </si>
+  <si>
+    <t>END_DATE_AFTER_GROUP_END_DATE</t>
+  </si>
+  <si>
+    <t>The end date of the third accounting period must be on or after the end date of the group's period of account</t>
+  </si>
+  <si>
+    <t>END_DATE_BEFORE_GROUP_START_DATE</t>
+  </si>
+  <si>
+    <t>The end date of the first accounting period must be on or after the start date of the group's period of account</t>
+  </si>
+  <si>
+    <t>END_DATE_BEFORE_PREVIOUS</t>
+  </si>
+  <si>
+    <t>End date of this accounting period cannot be equal to or before the end date of the preceding accounting period</t>
+  </si>
+  <si>
+    <t>END_DATE_BEFORE_START</t>
+  </si>
+  <si>
+    <t>End date of the group's period of account must be after start date of the group's period of account</t>
+  </si>
+  <si>
+    <t>END_DATE_CANNOT_BE_BEFORE_MIN</t>
+  </si>
+  <si>
+    <t>End date must be the same as or after 2017-04-01</t>
+  </si>
+  <si>
+    <t>END_DATE_GREATER_THAN_12_MONTHS</t>
+  </si>
+  <si>
+    <t>End date entered can't be more than 12 months after the end date for the previous accounting period</t>
+  </si>
+  <si>
+    <t>ESTIMATE_REASON_CHARACTERS</t>
+  </si>
+  <si>
+    <t>Estimate reason contains invalid characters</t>
+  </si>
+  <si>
+    <t>ESTIMATE_REASON_LENGTH</t>
+  </si>
+  <si>
     <t>Estimate reason must be between 1 and 10,000 characters</t>
   </si>
   <si>
-    <t>COUNTRY_CODE_INVALID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country code must be a valid ISO 3166-1 alpha-2 country code </t>
-  </si>
-  <si>
-    <t>COUNTRY_CODE_LENGTH</t>
-  </si>
-  <si>
-    <t>Country code must be 2 letters</t>
-  </si>
-  <si>
-    <t>DATE_INVALID</t>
-  </si>
-  <si>
-    <t>Dates must be in the range 1900-01-01 to 2099-12-31</t>
-  </si>
-  <si>
-    <t>DEEMED_EMPTY</t>
-  </si>
-  <si>
-    <t>Add at least 1 deemed parent</t>
-  </si>
-  <si>
-    <t>DEEMED_MAX</t>
-  </si>
-  <si>
-    <t>Maximum number of deemed parents is 3</t>
-  </si>
-  <si>
-    <t>DEEMED_MIN</t>
-  </si>
-  <si>
-    <t>Minimum number of deemed parents is 2</t>
-  </si>
-  <si>
-    <t>DEEMED_PARENT_DETAILS</t>
-  </si>
-  <si>
-    <t>Deemed parent must have either a CTUTR, a SAUTR or a country code</t>
-  </si>
-  <si>
-    <t>DEEMED_PARENT_UK</t>
-  </si>
-  <si>
-    <t>A UK deemed parent must have either a CTUTR or a SAUTR</t>
-  </si>
-  <si>
-    <t>EBITDA_DECIMAL</t>
-  </si>
-  <si>
-    <t>Group EBITDA must be to 2 decimal places or less</t>
-  </si>
-  <si>
-    <t>EBITDA_NEGATIVE</t>
-  </si>
-  <si>
-    <t>If group EBITDA is negative or zero, set group ratio to 100</t>
-  </si>
-  <si>
-    <t>END_DATE_18_MONTHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period of account cannot be longer than 18 months </t>
-  </si>
-  <si>
-    <t>END_DATE_AFTER_GROUP_END_DATE</t>
-  </si>
-  <si>
-    <t>The end date of the third accounting period must be on or after the end date of the group's period of account</t>
-  </si>
-  <si>
-    <t>END_DATE_BEFORE_GROUP_START_DATE</t>
-  </si>
-  <si>
-    <t>The end date of the first accounting period must be on or after the start date of the group's period of account</t>
-  </si>
-  <si>
-    <t>END_DATE_BEFORE_PREVIOUS</t>
-  </si>
-  <si>
-    <t>End date of this accounting period cannot be equal to or before the end date of the preceding accounting period</t>
-  </si>
-  <si>
-    <t>END_DATE_BEFORE_START</t>
-  </si>
-  <si>
-    <t>End date of the group's period of account must be after start date of the group's period of account</t>
-  </si>
-  <si>
-    <t>END_DATE_CANNOT_BE_BEFORE_MIN</t>
-  </si>
-  <si>
-    <t>End date must be the same as or after 2017-04-01</t>
-  </si>
-  <si>
-    <t>END_DATE_GREATER_THAN_12_MONTHS</t>
-  </si>
-  <si>
-    <t>End date entered can't be more than 12 months after the end date for the previous accounting period</t>
-  </si>
-  <si>
-    <t>ESTIMATE_REASON_CHARACTERS</t>
-  </si>
-  <si>
-    <t>Estimate reason contains invalid characters</t>
-  </si>
-  <si>
     <t>ESTIMATE_REASON_NOT_SUPPLIED</t>
   </si>
   <si>
@@ -256,7 +274,7 @@
     <t>GROUP_RATIO_CALC</t>
   </si>
   <si>
-    <t>The value of the group ratio percentage must match the value calculated by dividing the QNGIE by the group EBITDA</t>
+    <t>The value of the group ratio percentage must match the value calculated by dividing the QNGIE by the group EBITDA then multiplying it by 100</t>
   </si>
   <si>
     <t>GROUP_RATIO_DECIMAL</t>
@@ -265,12 +283,6 @@
     <t>Group ratio must be to 5 decimal places or less</t>
   </si>
   <si>
-    <t>GROUP_RATIO_NEGATIVE</t>
-  </si>
-  <si>
-    <t>If group ratio calculation is negative then set group ratio to 100%</t>
-  </si>
-  <si>
     <t>GROUP_RATIO_RANGE</t>
   </si>
   <si>
@@ -364,7 +376,13 @@
     <t>INVESTOR_GROUPS_SUPPLIED</t>
   </si>
   <si>
-    <t>Group ratio not elected so supply investor group not required</t>
+    <t>Group ratio blended not elected so supply investor group not required</t>
+  </si>
+  <si>
+    <t>JSON_VALIDATION_ERROR</t>
+  </si>
+  <si>
+    <t>Valid submission types are original and revised</t>
   </si>
   <si>
     <t>LEI_CHARACTER</t>
@@ -394,7 +412,7 @@
     <t>PARENT_COMPANY_NOT_SUPPLIED</t>
   </si>
   <si>
-    <t>Reporting company is not the ultimate parent, so details of ultimate parent needed</t>
+    <t>Reporting company is not the ultimate parent, so details of ultimate parent or deemed parent needed</t>
   </si>
   <si>
     <t>PARENT_COMPANY_SUPPLIED</t>
@@ -412,7 +430,7 @@
     <t>PARTNERSHIPS_EMPTY</t>
   </si>
   <si>
-    <t>Interest allowance (non-consolidated partnerships) election made, enter details of at least 1 non-consolidated partnership</t>
+    <t>Interest allowance (consolidated partnerships) election made, enter details of at least 1 consolidated partnership</t>
   </si>
   <si>
     <t>PARTNERSHIPS_NOT_SUPPLIED</t>
@@ -421,7 +439,7 @@
     <t>PARTNERSHIPS_SUPPLIED</t>
   </si>
   <si>
-    <t>Interest allowance (non-consolidated partnerships) election not made, so no details of non-consolidated partnership needed</t>
+    <t>Interest allowance (consolidated partnerships) election not made, so no details of consolidated partnership needed</t>
   </si>
   <si>
     <t>QNGIE_DECIMAL</t>
@@ -430,6 +448,12 @@
     <t>QNGIE must be to 2 decimal places or less</t>
   </si>
   <si>
+    <t>QNGIE_NEGATIVE</t>
+  </si>
+  <si>
+    <t>QNGIE must be a positive number</t>
+  </si>
+  <si>
     <t>REACTIVATION_CAP_PERIOD_DECIMAL</t>
   </si>
   <si>
@@ -589,19 +613,13 @@
     <t>ULTIMATE_DETAILS</t>
   </si>
   <si>
-    <t>Parent company must have either a CTUTR, a SAUTR or a country code</t>
+    <t>Ultimate parent must have either a CTUTR, a SAUTR or a country code</t>
   </si>
   <si>
     <t>ULTIMATE_PARENT_COUNTRY</t>
   </si>
   <si>
     <t>Enter a country of incorporation where the ultimate parent is non-UK</t>
-  </si>
-  <si>
-    <t>ULTIMATE_PARENT_NOT_SUPPLIED</t>
-  </si>
-  <si>
-    <t>Ultimate parent company must be entered if it is not the same as the reporting company</t>
   </si>
   <si>
     <t>ULTIMATE_PARENT_UTR</t>
@@ -626,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -637,6 +655,13 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -664,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -675,17 +700,20 @@
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +935,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.29"/>
-    <col customWidth="1" min="2" max="2" width="116.57"/>
+    <col customWidth="1" min="1" max="1" width="45.71"/>
+    <col customWidth="1" min="2" max="2" width="121.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -941,8 +969,6 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -966,8 +992,6 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -991,8 +1015,6 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -1016,8 +1038,6 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -1041,8 +1061,6 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -1066,8 +1084,6 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -1091,8 +1107,6 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1116,8 +1130,6 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
@@ -1141,8 +1153,6 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
@@ -1166,8 +1176,6 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
@@ -1191,8 +1199,6 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -1216,8 +1222,6 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
@@ -1241,8 +1245,6 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -1266,8 +1268,6 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -1291,8 +1291,6 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
@@ -1316,8 +1314,6 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
@@ -1341,8 +1337,6 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
@@ -1351,23 +1345,6 @@
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -1391,8 +1368,6 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
@@ -1416,8 +1391,6 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
@@ -1441,8 +1414,6 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
@@ -1466,8 +1437,6 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
@@ -1491,8 +1460,6 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
@@ -1516,8 +1483,6 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
@@ -1541,8 +1506,6 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
@@ -1566,8 +1529,6 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
@@ -1591,8 +1552,6 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
@@ -1616,8 +1575,6 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
@@ -1641,8 +1598,6 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
@@ -1666,8 +1621,6 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
@@ -1691,8 +1644,6 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
@@ -1716,8 +1667,6 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
@@ -1741,8 +1690,6 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
@@ -1766,8 +1713,6 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
@@ -1791,8 +1736,6 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
@@ -1816,8 +1759,6 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
@@ -1841,8 +1782,6 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -1866,8 +1805,6 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -1891,8 +1828,6 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -1916,8 +1851,6 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -1941,8 +1874,6 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -1966,8 +1897,6 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -1991,8 +1920,6 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -2016,8 +1943,6 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
@@ -2041,8 +1966,6 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
@@ -2066,11 +1989,9 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2091,8 +2012,6 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
@@ -2116,11 +2035,9 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2141,8 +2058,6 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
@@ -2166,8 +2081,6 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
@@ -2191,8 +2104,6 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
@@ -2216,8 +2127,6 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
@@ -2241,8 +2150,6 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
@@ -2266,8 +2173,6 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
@@ -2291,8 +2196,6 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
@@ -2316,8 +2219,6 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
@@ -2341,8 +2242,6 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
@@ -2366,8 +2265,6 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
@@ -2391,8 +2288,6 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
@@ -2416,8 +2311,6 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
@@ -2441,8 +2334,6 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
@@ -2466,8 +2357,6 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
@@ -2491,8 +2380,6 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
@@ -2516,8 +2403,6 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
@@ -2541,8 +2426,6 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
@@ -2566,15 +2449,13 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2591,15 +2472,13 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2616,15 +2495,13 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2641,15 +2518,13 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2666,8 +2541,6 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
@@ -2691,8 +2564,6 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
@@ -2716,8 +2587,6 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
@@ -2741,11 +2610,9 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -2766,8 +2633,6 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
@@ -2791,8 +2656,6 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
@@ -2816,8 +2679,6 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
@@ -2841,8 +2702,6 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
@@ -2866,8 +2725,6 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
@@ -2891,8 +2748,6 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
@@ -2916,8 +2771,6 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
@@ -2941,11 +2794,9 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -2966,8 +2817,6 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
@@ -2991,8 +2840,6 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
@@ -3016,11 +2863,9 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -3041,11 +2886,9 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -3066,11 +2909,9 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -3091,11 +2932,9 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -3116,8 +2955,6 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
@@ -3141,8 +2978,6 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
@@ -3166,11 +3001,9 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -3191,8 +3024,6 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
@@ -3216,8 +3047,6 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
@@ -3241,11 +3070,9 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -3266,11 +3093,9 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -3291,8 +3116,6 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
@@ -3316,11 +3139,9 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -3341,11 +3162,9 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -3366,11 +3185,9 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -3391,8 +3208,6 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
@@ -3401,76 +3216,42 @@
       <c r="B101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
     </row>
     <row r="103">
-      <c r="A103" s="6"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="6"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="6"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="6"/>
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="6"/>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="6"/>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="6"/>
-      <c r="B109" s="4"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/source/downloads/error-messages/Full Return Errors.xlsx
+++ b/source/downloads/error-messages/Full Return Errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamcooper/Documents/GitHub/irr-api-end-to-end-service-guide/source/downloads/error-messages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2416AD0F-65B5-CB4F-AE89-1B2370A6B88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A50FDD-AA3A-A443-8D0B-FE8F45AF3B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,9 @@
     <t>ADJUSTED_GROUP_INTEREST_NOT_SUPPLIED</t>
   </si>
   <si>
-    <t>Group ratio elected so qngie, group-EBITDA and group ratio should be provided</t>
-  </si>
-  <si>
     <t>ADJUSTED_GROUP_INTEREST_SUPPLIED</t>
   </si>
   <si>
-    <t>Group ratio not elected so qngie, group-EBITDA and group ratio should not be provided</t>
-  </si>
-  <si>
     <t>AGENT_NAME_CHARACTERS</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>GROUP_RATIO_BLENDED_NOT_SUPPLIED</t>
   </si>
   <si>
-    <t>If group ratio is elected, a value for group ratio (blended) election must be provided</t>
-  </si>
-  <si>
     <t>GROUP_RATIO_BLENDED_SUPPLIED</t>
   </si>
   <si>
@@ -514,9 +505,6 @@
     <t>RESTRICTION_GREATER_THAN_EXPENSE</t>
   </si>
   <si>
-    <t>A company cannot have a restriction greater than its tax-interest expense</t>
-  </si>
-  <si>
     <t>RESTRICTION_MISSING_PREVIOUS</t>
   </si>
   <si>
@@ -647,6 +635,18 @@
   </si>
   <si>
     <t>UTR must be 10 numeric characters</t>
+  </si>
+  <si>
+    <t>Group ratio % elected so qngie, group-EBITDA and group ratio should be provided</t>
+  </si>
+  <si>
+    <t>Group ratio % not elected so qngie, group-EBITDA and group ratio should not be provided</t>
+  </si>
+  <si>
+    <t>If group ratio % is elected, a value for group ratio (blended) election must be true or false</t>
+  </si>
+  <si>
+    <t>A company cannot have a restriction greater than its net tax-interest expense</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,8 @@
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -986,10 +986,10 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1354,18 +1354,18 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="54" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="55" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="56" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="57" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="58" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="59" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="60" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="61" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="62" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="63" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="64" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="65" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="66" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="69" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="70" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2535,10 +2535,10 @@
     </row>
     <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="72" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="74" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="75" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="76" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="77" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="78" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="79" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="80" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="81" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="82" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="83" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="84" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="85" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2880,10 +2880,10 @@
     </row>
     <row r="86" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="87" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="88" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="89" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="90" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="91" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="92" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="93" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="94" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="95" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="96" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="97" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="98" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="99" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="100" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3225,42 +3225,42 @@
     </row>
     <row r="101" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="13" x14ac:dyDescent="0.15">

--- a/source/downloads/error-messages/Full Return Errors.xlsx
+++ b/source/downloads/error-messages/Full Return Errors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamcooper/Documents/GitHub/irr-api-end-to-end-service-guide/source/downloads/error-messages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A50FDD-AA3A-A443-8D0B-FE8F45AF3B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B1C7BB-9F30-F547-92ED-44AFCCFBBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Return Errors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
   <si>
     <t>Error Code</t>
   </si>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">Period of account cannot be longer than 18 months </t>
-  </si>
-  <si>
-    <t>END_DATE_AFTER_GROUP_END_DATE</t>
-  </si>
-  <si>
-    <t>The end date of the third accounting period must be on or after the end date of the group's period of account</t>
   </si>
   <si>
     <t>END_DATE_BEFORE_GROUP_START_DATE</t>
@@ -939,11 +933,11 @@
     <tabColor rgb="FFF4CCCC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -966,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -989,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1848,7 +1842,7 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1868,10 +1862,10 @@
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2119,7 +2113,7 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>101</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>135</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2535,10 +2529,10 @@
     </row>
     <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2791,7 +2785,7 @@
         <v>158</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2811,10 +2805,10 @@
     </row>
     <row r="83" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3207,21 +3201,6 @@
       <c r="B100" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
@@ -3256,18 +3235,11 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>